--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13251,46 +13254,46 @@
         <v>234</v>
       </c>
       <c r="B218">
-        <v>3521</v>
+        <v>3962</v>
       </c>
       <c r="C218">
-        <v>437</v>
+        <v>884</v>
       </c>
       <c r="D218">
-        <v>-648</v>
+        <v>-55</v>
       </c>
       <c r="E218">
-        <v>886</v>
+        <v>719</v>
       </c>
       <c r="F218">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G218">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="H218">
         <v>144</v>
       </c>
       <c r="I218">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="J218">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="K218">
         <v>-90</v>
       </c>
       <c r="L218">
-        <v>-1137</v>
+        <v>-1138</v>
       </c>
       <c r="M218">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N218">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O218">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="P218">
         <v>243</v>
@@ -13307,31 +13310,31 @@
         <v>235</v>
       </c>
       <c r="B219">
-        <v>134</v>
+        <v>5563</v>
       </c>
       <c r="C219">
-        <v>745</v>
+        <v>6178</v>
       </c>
       <c r="D219">
-        <v>382</v>
+        <v>6026</v>
       </c>
       <c r="E219">
-        <v>130</v>
+        <v>-106</v>
       </c>
       <c r="F219">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G219">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H219">
         <v>-31</v>
       </c>
       <c r="I219">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J219">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K219">
         <v>633</v>
@@ -13343,10 +13346,10 @@
         <v>-219</v>
       </c>
       <c r="N219">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O219">
-        <v>-313</v>
+        <v>-321</v>
       </c>
       <c r="P219">
         <v>-203</v>
@@ -13363,31 +13366,31 @@
         <v>236</v>
       </c>
       <c r="B220">
-        <v>2797</v>
+        <v>2442</v>
       </c>
       <c r="C220">
-        <v>1842</v>
+        <v>1769</v>
       </c>
       <c r="D220">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E220">
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="F220">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="G220">
-        <v>-443</v>
+        <v>-529</v>
       </c>
       <c r="H220">
         <v>83</v>
       </c>
       <c r="I220">
-        <v>-526</v>
+        <v>-612</v>
       </c>
       <c r="J220">
-        <v>-500</v>
+        <v>-586</v>
       </c>
       <c r="K220">
         <v>-26</v>
@@ -13396,13 +13399,13 @@
         <v>-856</v>
       </c>
       <c r="M220">
-        <v>2254</v>
+        <v>2057</v>
       </c>
       <c r="N220">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="O220">
-        <v>1433</v>
+        <v>1239</v>
       </c>
       <c r="P220">
         <v>47</v>
@@ -13419,19 +13422,19 @@
         <v>237</v>
       </c>
       <c r="B221">
-        <v>4988</v>
+        <v>5035</v>
       </c>
       <c r="C221">
-        <v>3545</v>
+        <v>3654</v>
       </c>
       <c r="D221">
         <v>1309</v>
       </c>
       <c r="E221">
-        <v>1442</v>
+        <v>1559</v>
       </c>
       <c r="F221">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="G221">
         <v>2802</v>
@@ -13440,7 +13443,7 @@
         <v>403</v>
       </c>
       <c r="I221">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="J221">
         <v>2779</v>
@@ -13452,13 +13455,13 @@
         <v>-1028</v>
       </c>
       <c r="M221">
-        <v>-332</v>
+        <v>-394</v>
       </c>
       <c r="N221">
-        <v>-15</v>
+        <v>-71</v>
       </c>
       <c r="O221">
-        <v>-254</v>
+        <v>-260</v>
       </c>
       <c r="P221">
         <v>-62</v>
@@ -13475,31 +13478,31 @@
         <v>238</v>
       </c>
       <c r="B222">
-        <v>1914</v>
+        <v>1754</v>
       </c>
       <c r="C222">
-        <v>64</v>
+        <v>-116</v>
       </c>
       <c r="D222">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E222">
-        <v>-134</v>
+        <v>-305</v>
       </c>
       <c r="F222">
-        <v>-235</v>
+        <v>-222</v>
       </c>
       <c r="G222">
-        <v>2446</v>
+        <v>2427</v>
       </c>
       <c r="H222">
         <v>221</v>
       </c>
       <c r="I222">
-        <v>2225</v>
+        <v>2206</v>
       </c>
       <c r="J222">
-        <v>2468</v>
+        <v>2448</v>
       </c>
       <c r="K222">
         <v>-242</v>
@@ -13508,13 +13511,13 @@
         <v>-829</v>
       </c>
       <c r="M222">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="N222">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="O222">
-        <v>-163</v>
+        <v>-169</v>
       </c>
       <c r="P222">
         <v>56</v>
@@ -13523,6 +13526,62 @@
         <v>0</v>
       </c>
       <c r="R222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223">
+        <v>497</v>
+      </c>
+      <c r="C223">
+        <v>1346</v>
+      </c>
+      <c r="D223">
+        <v>1251</v>
+      </c>
+      <c r="E223">
+        <v>1125</v>
+      </c>
+      <c r="F223">
+        <v>-1030</v>
+      </c>
+      <c r="G223">
+        <v>1128</v>
+      </c>
+      <c r="H223">
+        <v>187</v>
+      </c>
+      <c r="I223">
+        <v>941</v>
+      </c>
+      <c r="J223">
+        <v>1199</v>
+      </c>
+      <c r="K223">
+        <v>-258</v>
+      </c>
+      <c r="L223">
+        <v>-949</v>
+      </c>
+      <c r="M223">
+        <v>-1029</v>
+      </c>
+      <c r="N223">
+        <v>11</v>
+      </c>
+      <c r="O223">
+        <v>-1028</v>
+      </c>
+      <c r="P223">
+        <v>-11</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
         <v>0</v>
       </c>
     </row>

--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13585,6 +13588,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="224" spans="1:18">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224">
+        <v>9935</v>
+      </c>
+      <c r="C224">
+        <v>1090</v>
+      </c>
+      <c r="D224">
+        <v>-965</v>
+      </c>
+      <c r="E224">
+        <v>1144</v>
+      </c>
+      <c r="F224">
+        <v>912</v>
+      </c>
+      <c r="G224">
+        <v>8961</v>
+      </c>
+      <c r="H224">
+        <v>157</v>
+      </c>
+      <c r="I224">
+        <v>8804</v>
+      </c>
+      <c r="J224">
+        <v>8737</v>
+      </c>
+      <c r="K224">
+        <v>67</v>
+      </c>
+      <c r="L224">
+        <v>-899</v>
+      </c>
+      <c r="M224">
+        <v>783</v>
+      </c>
+      <c r="N224">
+        <v>499</v>
+      </c>
+      <c r="O224">
+        <v>327</v>
+      </c>
+      <c r="P224">
+        <v>-44</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13644,6 +13647,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225" spans="1:18">
+      <c r="A225" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225">
+        <v>5403</v>
+      </c>
+      <c r="C225">
+        <v>1358</v>
+      </c>
+      <c r="D225">
+        <v>46</v>
+      </c>
+      <c r="E225">
+        <v>1262</v>
+      </c>
+      <c r="F225">
+        <v>49</v>
+      </c>
+      <c r="G225">
+        <v>1036</v>
+      </c>
+      <c r="H225">
+        <v>274</v>
+      </c>
+      <c r="I225">
+        <v>762</v>
+      </c>
+      <c r="J225">
+        <v>825</v>
+      </c>
+      <c r="K225">
+        <v>-63</v>
+      </c>
+      <c r="L225">
+        <v>-962</v>
+      </c>
+      <c r="M225">
+        <v>3970</v>
+      </c>
+      <c r="N225">
+        <v>605</v>
+      </c>
+      <c r="O225">
+        <v>1004</v>
+      </c>
+      <c r="P225">
+        <v>-17</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>2377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13703,6 +13706,62 @@
         <v>2377</v>
       </c>
     </row>
+    <row r="226" spans="1:18">
+      <c r="A226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226">
+        <v>6321</v>
+      </c>
+      <c r="C226">
+        <v>-789</v>
+      </c>
+      <c r="D226">
+        <v>171</v>
+      </c>
+      <c r="E226">
+        <v>-787</v>
+      </c>
+      <c r="F226">
+        <v>-173</v>
+      </c>
+      <c r="G226">
+        <v>6351</v>
+      </c>
+      <c r="H226">
+        <v>232</v>
+      </c>
+      <c r="I226">
+        <v>6119</v>
+      </c>
+      <c r="J226">
+        <v>5875</v>
+      </c>
+      <c r="K226">
+        <v>244</v>
+      </c>
+      <c r="L226">
+        <v>-774</v>
+      </c>
+      <c r="M226">
+        <v>1533</v>
+      </c>
+      <c r="N226">
+        <v>12</v>
+      </c>
+      <c r="O226">
+        <v>1381</v>
+      </c>
+      <c r="P226">
+        <v>140</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
